--- a/sales_record.xlsx
+++ b/sales_record.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hideakiehara/virtualenv/py24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8DBC9CA-FFB6-6B4F-82BA-CEF067A7BD80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49667A77-AE85-254B-AAE7-92642FB78E80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="2060" windowWidth="27900" windowHeight="16940" xr2:uid="{1D749206-A34A-D140-B6CC-372566C2E5FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_100_Sales_Records" localSheetId="0">Sheet1!$A$1:$N$101</definedName>
+    <definedName name="_100_Sales_Records" localSheetId="0">'1'!$A$1:$N$101</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1355,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EF3709-C5C5-2A43-A03E-DBA03EC82265}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
